--- a/펫시터_한송우.xlsx
+++ b/펫시터_한송우.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>시스템명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>펫 정보 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시터 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,18 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>펫 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펫 마리수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 동물과의 경험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수행 가능 일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,37 +175,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 등록</t>
-  </si>
-  <si>
     <t>세미나 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세미나 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이지 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐이지 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나의 펫 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펫 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID, 패스워드를 입력하여 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채팅기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시터와 회원의 채팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원질문 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진 및 동영상 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시터 가능한 펫 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,6 +251,56 @@
   </si>
   <si>
     <t>펫 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 가능 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류, 무게, 마리수, 다른 동물과의 함게 케어 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록 및 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 등록 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 등록 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 입력한 PW와 두번째 입력한 PW가 일치하는지 확인 </t>
+  </si>
+  <si>
+    <t>이름과 휴대전화 번호를 입력하고 본인인증번호를 휴대전화로 받아, 본인인증란에 입력 후 확인</t>
+  </si>
+  <si>
+    <t>입력한  ID중복확인하여 중복될 시 다시 입력하도록 알림창 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -383,8 +378,60 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -396,10 +443,135 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -408,7 +580,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -418,13 +590,41 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -438,32 +638,86 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,121 +1040,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>30</v>
+      <c r="F2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -908,426 +1168,397 @@
         <v>20</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1" t="s">
+      <c r="B37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="1" t="s">
+      <c r="C40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/펫시터_한송우.xlsx
+++ b/펫시터_한송우.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
   <si>
     <t>시스템명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QnA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QnA 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +293,69 @@
   </si>
   <si>
     <t>입력한  ID중복확인하여 중복될 시 다시 입력하도록 알림창 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+후기작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 레이아웃 및 스타일, 메인화면 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹/앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹</t>
+  </si>
+  <si>
+    <t>웹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -629,6 +684,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +748,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,67 +805,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1039,525 +1154,683 @@
     <col min="4" max="4" width="96.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="E18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A17:A36"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="17">
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="A18:A37"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,12 +1840,776 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="A18:A37"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="E10:E17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/펫시터_한송우.xlsx
+++ b/펫시터_한송우.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>시스템명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,46 @@
   </si>
   <si>
     <t>웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스가 가능한 날짜를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스가 가능한 구역을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책, 방문, 가정, 케어 등의 필요한 서비스 종류를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터에게 맡길 내 펫 정보를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불할 수 있는 요금 정보를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에서 지원하는 세미나의 리스트를 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나의 상세 정보를 통해 참여의사를 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에서 대여할 수 있는 케이지의 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 상세를 통해 대여할 일수를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 상세정보와 대여일자를 통해 케이지 대여(비용지불)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,18 +836,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,24 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,32 +1235,32 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="31"/>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1229,7 +1269,7 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1239,15 +1279,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="2">
         <v>1</v>
       </c>
@@ -1255,15 +1295,15 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -1271,8 +1311,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1281,7 +1321,7 @@
       <c r="D7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="2">
         <v>1</v>
       </c>
@@ -1289,15 +1329,15 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1305,15 +1345,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -1321,15 +1361,15 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="2">
@@ -1339,15 +1379,15 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="2">
         <v>2</v>
       </c>
@@ -1355,15 +1395,15 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
@@ -1371,13 +1411,13 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2">
         <v>2</v>
       </c>
@@ -1385,13 +1425,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="2">
         <v>2</v>
       </c>
@@ -1399,13 +1439,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="2">
         <v>3</v>
       </c>
@@ -1413,13 +1453,13 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2">
         <v>3</v>
       </c>
@@ -1427,13 +1467,13 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
@@ -1441,10 +1481,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1453,7 +1493,7 @@
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3">
@@ -1463,13 +1503,13 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -1477,15 +1517,15 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="2">
         <v>1</v>
       </c>
@@ -1493,13 +1533,13 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="2">
         <v>1</v>
       </c>
@@ -1507,13 +1547,13 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -1521,15 +1561,15 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="2">
         <v>2</v>
       </c>
@@ -1537,13 +1577,13 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="2">
         <v>2</v>
       </c>
@@ -1551,15 +1591,15 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="2">
         <v>3</v>
       </c>
@@ -1567,13 +1607,13 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="2">
         <v>3</v>
       </c>
@@ -1581,13 +1621,13 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -1595,15 +1635,15 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="2">
@@ -1613,13 +1653,13 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="2">
         <v>3</v>
       </c>
@@ -1627,13 +1667,13 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="2">
         <v>3</v>
       </c>
@@ -1641,13 +1681,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -1655,15 +1695,15 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="2">
@@ -1673,15 +1713,15 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="2">
         <v>2</v>
       </c>
@@ -1689,13 +1729,13 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="2">
         <v>2</v>
       </c>
@@ -1703,13 +1743,13 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="2">
         <v>2</v>
       </c>
@@ -1717,13 +1757,13 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="2">
         <v>3</v>
       </c>
@@ -1731,13 +1771,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="7">
         <v>1</v>
       </c>
@@ -1745,7 +1785,7 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1755,7 +1795,7 @@
         <v>63</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="3">
@@ -1765,7 +1805,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1773,7 +1813,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="2">
         <v>1</v>
       </c>
@@ -1781,7 +1821,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1789,7 +1829,7 @@
         <v>65</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="2">
         <v>2</v>
       </c>
@@ -1797,7 +1837,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1845,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="22"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="7">
         <v>2</v>
       </c>
@@ -1814,12 +1854,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E18:E27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="A38:A41"/>
@@ -1831,6 +1865,12 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E18:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1895,34 +1935,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="31"/>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1931,7 +1971,7 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1943,15 +1983,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="2">
         <v>1</v>
       </c>
@@ -1961,15 +2001,15 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -1979,8 +2019,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1989,7 +2029,7 @@
       <c r="D7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="2">
         <v>1</v>
       </c>
@@ -1999,15 +2039,15 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -2017,15 +2057,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -2035,15 +2075,15 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="2">
@@ -2055,15 +2095,15 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="2">
         <v>2</v>
       </c>
@@ -2073,15 +2113,15 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
@@ -2091,13 +2131,13 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2">
         <v>2</v>
       </c>
@@ -2107,13 +2147,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="2">
         <v>2</v>
       </c>
@@ -2123,13 +2163,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="2">
         <v>3</v>
       </c>
@@ -2139,13 +2179,13 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2">
         <v>3</v>
       </c>
@@ -2155,13 +2195,13 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
@@ -2171,19 +2211,19 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3">
@@ -2195,13 +2235,15 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="25"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2211,15 +2253,15 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="E20" s="25"/>
       <c r="F20" s="2">
         <v>1</v>
       </c>
@@ -2229,13 +2271,15 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="2">
         <v>1</v>
       </c>
@@ -2245,13 +2289,15 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="25"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -2261,15 +2307,17 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="25"/>
       <c r="F23" s="2">
         <v>2</v>
       </c>
@@ -2279,13 +2327,15 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="25"/>
       <c r="F24" s="2">
         <v>2</v>
       </c>
@@ -2295,15 +2345,17 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="25"/>
       <c r="F25" s="2">
         <v>3</v>
       </c>
@@ -2313,13 +2365,15 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="25"/>
       <c r="F26" s="2">
         <v>3</v>
       </c>
@@ -2329,13 +2383,15 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="28"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -2345,15 +2401,15 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="2">
@@ -2365,13 +2421,13 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="2">
         <v>3</v>
       </c>
@@ -2381,13 +2437,13 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="2">
         <v>3</v>
       </c>
@@ -2397,13 +2453,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -2413,15 +2469,15 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="2">
@@ -2433,15 +2489,15 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="2">
         <v>2</v>
       </c>
@@ -2451,13 +2507,13 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="2">
         <v>2</v>
       </c>
@@ -2467,13 +2523,13 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="2">
         <v>2</v>
       </c>
@@ -2483,13 +2539,13 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="2">
         <v>3</v>
       </c>
@@ -2499,13 +2555,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="7">
         <v>1</v>
       </c>
@@ -2515,7 +2571,7 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2525,7 +2581,7 @@
         <v>63</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="3">
@@ -2537,7 +2593,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
@@ -2545,7 +2601,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="2">
         <v>1</v>
       </c>
@@ -2555,7 +2611,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -2563,7 +2619,7 @@
         <v>65</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="2">
         <v>2</v>
       </c>
@@ -2573,7 +2629,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2637,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="22"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="7">
         <v>2</v>
       </c>
@@ -2592,6 +2648,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="E10:E17"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="A18:A37"/>
@@ -2603,12 +2665,6 @@
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="E32:E37"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="E10:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/펫시터_한송우.xlsx
+++ b/펫시터_한송우.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="104">
   <si>
     <t>시스템명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,42 @@
   </si>
   <si>
     <t>케이지 상세정보와 대여일자를 통해 케이지 대여(비용지불)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문(FAQ)의 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들이 올린 질문과 이에 대한 답변 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사의 서비스에 대한 질의, 불만, 칭찬, 건의사항 등을 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 리스트에서 제목 또는 ID로 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에 저장된 정보 중 변경 가능한 정보를 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 날짜 와 해당 펫 시터의 이름 리스트 및 별점, 리뷰작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호하는 펫 시터를 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 시터와의 1:1 채팅 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 등록된 정보 수정 및 리뷰 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,15 +893,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,6 +906,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,10 +1293,10 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1269,7 +1305,7 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1279,7 +1315,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1295,8 +1331,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1311,7 +1347,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1365,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -1345,15 +1381,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -1361,7 +1397,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1415,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -1395,7 +1431,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1411,7 +1447,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -1425,7 +1461,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -1439,7 +1475,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
         <v>54</v>
@@ -1453,7 +1489,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
@@ -1467,13 +1503,13 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
@@ -1481,10 +1517,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1493,7 +1529,7 @@
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3">
@@ -1503,7 +1539,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1517,7 +1553,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>33</v>
@@ -1533,7 +1569,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -1547,8 +1583,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1561,7 +1597,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="24" t="s">
         <v>9</v>
       </c>
@@ -1577,8 +1613,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1627,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1643,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1621,13 +1657,13 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -1635,7 +1671,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
@@ -1653,7 +1689,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
@@ -1667,7 +1703,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -1681,13 +1717,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -1695,7 +1731,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
@@ -1713,7 +1749,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
@@ -1729,7 +1765,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
@@ -1743,7 +1779,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>57</v>
@@ -1757,7 +1793,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>59</v>
@@ -1771,13 +1807,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="26"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="7">
         <v>1</v>
       </c>
@@ -1785,7 +1821,7 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1795,7 +1831,7 @@
         <v>63</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="3">
@@ -1805,7 +1841,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1857,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1873,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1881,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="26"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="7">
         <v>2</v>
       </c>
@@ -1854,6 +1890,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E18:E27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="A38:A41"/>
@@ -1865,12 +1907,6 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E18:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1959,10 +1995,10 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1971,7 +2007,7 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1983,7 +2019,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -2001,8 +2037,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2019,7 +2055,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2075,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -2057,15 +2093,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -2075,7 +2111,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2131,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -2113,7 +2149,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -2131,7 +2167,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -2147,7 +2183,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -2163,7 +2199,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
         <v>54</v>
@@ -2179,7 +2215,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
@@ -2195,13 +2231,13 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
@@ -2211,10 +2247,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2223,7 +2259,7 @@
       <c r="D18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3">
@@ -2235,7 +2271,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2253,7 +2289,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>33</v>
@@ -2271,7 +2307,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -2289,8 +2325,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2307,7 +2343,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="24" t="s">
         <v>9</v>
       </c>
@@ -2327,8 +2363,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -2345,7 +2381,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
@@ -2365,7 +2401,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -2383,15 +2419,15 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -2401,14 +2437,16 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E28" s="24" t="s">
         <v>77</v>
       </c>
@@ -2421,12 +2459,14 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E29" s="25"/>
       <c r="F29" s="2">
         <v>3</v>
@@ -2437,12 +2477,14 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="2">
         <v>3</v>
@@ -2453,13 +2495,15 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="28"/>
+      <c r="D31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="26"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -2469,14 +2513,16 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E32" s="24" t="s">
         <v>78</v>
       </c>
@@ -2489,13 +2535,13 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="2">
@@ -2507,12 +2553,14 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="2">
         <v>2</v>
@@ -2523,148 +2571,136 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="2">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="8" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="9"/>
+      <c r="D36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="25"/>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="B40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="9"/>
+      <c r="H40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A18:A36"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="E32:E36"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="E10:E17"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="A18:A37"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E18:E27"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="E32:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/펫시터_한송우.xlsx
+++ b/펫시터_한송우.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -16,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
   <si>
     <t>시스템명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +394,110 @@
   </si>
   <si>
     <t>케이지 상세정보와 대여일자를 통해 케이지 대여(비용지불)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, 패스워드를 입력하여 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 회원정보에 등록한 휴대전화번호를 입력하여 인증번호를 받아 본인확인 후 ID를 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 아이디 및 회원정보에 등록한 휴대전화번호를 입력하여 인증번호를 받아 본인확인 후 PW 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 중복확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 ID 중복확인하여 중복될 시 다시 입력하도록 알림창 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW 일치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화 본인인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 휴대전화 번호를 입력하고 인증번호를 휴대전화 메시지로 받아 입력 및 인증번호 확인 후 본인인증 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트의 공지사항 등록 및 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반회원 및 시터회원의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 등록 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물 케어 관련 교육 목록 업로드 및 참여 회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 이용현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여중인 케이지, 반납 케이지, 대여 회원 정보 등 이용현황 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,15 +959,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,6 +972,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,6 +993,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1257,10 +1376,10 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1269,7 +1388,7 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1279,7 +1398,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1295,8 +1414,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1311,7 +1430,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1448,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -1345,15 +1464,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -1361,7 +1480,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1498,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -1395,7 +1514,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1411,7 +1530,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -1425,7 +1544,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -1439,7 +1558,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
         <v>54</v>
@@ -1453,7 +1572,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
@@ -1467,13 +1586,13 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
@@ -1481,10 +1600,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1493,7 +1612,7 @@
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3">
@@ -1503,7 +1622,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1517,7 +1636,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>33</v>
@@ -1533,7 +1652,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -1547,8 +1666,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1561,7 +1680,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="24" t="s">
         <v>9</v>
       </c>
@@ -1577,8 +1696,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1710,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1726,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1621,13 +1740,13 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -1635,7 +1754,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
@@ -1653,7 +1772,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
@@ -1667,7 +1786,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -1681,13 +1800,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -1695,7 +1814,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
@@ -1713,7 +1832,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
@@ -1729,7 +1848,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
@@ -1743,7 +1862,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>57</v>
@@ -1757,7 +1876,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>59</v>
@@ -1771,13 +1890,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="26"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="7">
         <v>1</v>
       </c>
@@ -1785,7 +1904,7 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1795,7 +1914,7 @@
         <v>63</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="3">
@@ -1805,7 +1924,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1940,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1956,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1964,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="26"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="7">
         <v>2</v>
       </c>
@@ -1854,6 +1973,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E18:E27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="A38:A41"/>
@@ -1865,12 +1990,6 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E18:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1959,19 +2078,19 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>6</v>
+      <c r="B4" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1983,17 +2102,17 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>82</v>
@@ -2001,17 +2120,17 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>82</v>
@@ -2019,33 +2138,33 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="2">
@@ -2057,15 +2176,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -2075,35 +2194,35 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="24" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="25"/>
       <c r="F11" s="2">
         <v>2</v>
       </c>
@@ -2113,13 +2232,13 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="2">
@@ -2131,12 +2250,14 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="2">
         <v>2</v>
@@ -2147,10 +2268,10 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="25"/>
@@ -2163,15 +2284,15 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="25"/>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>82</v>
@@ -2179,10 +2300,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="25"/>
@@ -2194,72 +2315,70 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="7">
+      <c r="D18" s="8"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="G18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E19" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="2">
@@ -2271,13 +2390,13 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="2">
@@ -2289,13 +2408,13 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="2">
@@ -2307,19 +2426,17 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24" t="s">
-        <v>9</v>
-      </c>
+      <c r="A23" s="29"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>82</v>
@@ -2327,13 +2444,15 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="2">
@@ -2345,19 +2464,17 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>82</v>
@@ -2365,13 +2482,15 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="2">
@@ -2383,15 +2502,15 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="E27" s="25"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -2401,35 +2520,37 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="24" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="25"/>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>82</v>
@@ -2437,10 +2558,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="25"/>
@@ -2453,13 +2574,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -2469,37 +2590,35 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="24" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="25"/>
       <c r="F33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>82</v>
@@ -2507,12 +2626,14 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="2">
         <v>2</v>
@@ -2523,10 +2644,10 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="25"/>
@@ -2539,132 +2660,156 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
       <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="2">
         <v>3</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="8" t="s">
+      <c r="G37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="27" t="s">
+      <c r="B39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E40" s="25"/>
       <c r="F40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
-      <c r="G41" s="7" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="7">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A19:A38"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="A4:A18"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="A18:A37"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E18:E27"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/펫시터_한송우.xlsx
+++ b/펫시터_한송우.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -11,15 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="167">
   <si>
     <t>시스템명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,122 +348,314 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>웹</t>
+  </si>
+  <si>
+    <t>지불할 수 있는 요금 정보를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에서 지원하는 세미나의 리스트를 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나의 상세 정보를 통해 참여의사를 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 회원정보에 등록한 휴대전화번호를 입력하여 인증번호를 받아 본인확인 후 ID를 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 아이디 및 회원정보에 등록한 휴대전화번호를 입력하여 인증번호를 받아 본인확인 후 PW 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물 케어 관련 교육 목록 업로드 및 참여 회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 이용현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 리스트에서 제목 또는 ID로 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 날짜와 해당 펫 시터의 이름 리스트 및 평점, 리뷰작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호하는 펫 시터를 등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫시터 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>웹/앱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 레이아웃 및 스타일, 메인화면 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 중복확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 ID 중복확인하여 중복될 시 다시 입력하도록 알림창 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화 본인인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 휴대전화 번호를 입력하고 인증번호를 휴대전화 메시지로 받아 입력 및 인증번호 확인 후 본인인증 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 가능한 펫 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류, 무게, 마리수, 다른 동물과의 함게 케어 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행 능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행 능력(산책, 방문, 가정, 케어..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 가능 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 구인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책, 방문, 가정, 케어 등의 필요한 서비스 종류를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스가 가능한 날짜를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스가 가능한 구역을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터에게 맡길 내 펫 정보를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 참석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 대여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에서 대여할 수 있는 케이지의 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여 일자 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 상세를 통해 대여할 일수를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이지 상세정보와 대여일자를 통해 케이지 대여(비용지불)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문(FAQ) 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들이 올린 질문과 이에 대한 답변 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사의 서비스에 대한 질의, 불만, 칭찬, 건의사항 등을 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에 저장된 정보 중 변경 가능한 정보를 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 이용 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 시터와의 1:1 채팅 기능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시터 등록된 정보 수정 및 리뷰 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트의 공지사항 등록 및 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>웹</t>
-  </si>
-  <si>
-    <t>웹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스가 가능한 날짜를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스가 가능한 구역을 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산책, 방문, 가정, 케어 등의 필요한 서비스 종류를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시터에게 맡길 내 펫 정보를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지불할 수 있는 요금 정보를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트에서 지원하는 세미나의 리스트를 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나의 상세 정보를 통해 참여의사를 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트에서 대여할 수 있는 케이지의 리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이지 상세를 통해 대여할 일수를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이지 상세정보와 대여일자를 통해 케이지 대여(비용지불)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID, 패스워드를 입력하여 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름과 회원정보에 등록한 휴대전화번호를 입력하여 인증번호를 받아 본인확인 후 ID를 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름과 아이디 및 회원정보에 등록한 휴대전화번호를 입력하여 인증번호를 받아 본인확인 후 PW 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 양식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 중복확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 ID 중복확인하여 중복될 시 다시 입력하도록 알림창 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW 일치 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대전화 본인인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름과 휴대전화 번호를 입력하고 인증번호를 휴대전화 메시지로 받아 입력 및 인증번호 확인 후 본인인증 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트의 공지사항 등록 및 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,14 +676,6 @@
   </si>
   <si>
     <t>세미나 등록 및 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반려동물 케어 관련 교육 목록 업로드 및 참여 회원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이지 이용현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,7 +691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +709,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -959,12 +1151,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,9 +1167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,23 +1185,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,7 +1230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,7 +1265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1376,10 +1551,10 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1388,7 +1563,7 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3">
@@ -1398,7 +1573,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1414,8 +1589,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1430,7 +1605,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1623,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -1464,15 +1639,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -1480,7 +1655,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1673,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -1514,7 +1689,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1530,7 +1705,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -1544,7 +1719,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -1558,7 +1733,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
         <v>54</v>
@@ -1572,7 +1747,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
@@ -1586,13 +1761,13 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
@@ -1600,10 +1775,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1612,7 +1787,7 @@
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3">
@@ -1622,7 +1797,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1636,7 +1811,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>33</v>
@@ -1652,7 +1827,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -1666,8 +1841,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1855,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="24" t="s">
         <v>9</v>
       </c>
@@ -1696,8 +1871,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1885,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1901,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="25"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1740,13 +1915,13 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -1754,7 +1929,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
@@ -1772,7 +1947,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>49</v>
@@ -1786,7 +1961,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -1800,13 +1975,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -1814,7 +1989,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
@@ -1832,7 +2007,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
@@ -1848,7 +2023,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
@@ -1862,7 +2037,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>57</v>
@@ -1876,7 +2051,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>59</v>
@@ -1890,13 +2065,13 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="7">
         <v>1</v>
       </c>
@@ -1904,7 +2079,7 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1914,7 +2089,7 @@
         <v>63</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="3">
@@ -1924,7 +2099,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1940,7 +2115,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +2131,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +2139,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="7">
         <v>2</v>
       </c>
@@ -1973,12 +2148,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E18:E27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="A38:A41"/>
@@ -1990,6 +2159,12 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E18:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1999,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2015,10 +2190,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
@@ -2029,25 +2204,25 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>24</v>
@@ -2058,95 +2233,95 @@
         <v>70</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F3" s="21">
         <v>1</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>95</v>
+      <c r="A4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="2">
@@ -2158,28 +2333,28 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="25"/>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>66</v>
@@ -2189,89 +2364,89 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="26"/>
+        <v>114</v>
+      </c>
+      <c r="E10" s="28"/>
       <c r="F10" s="2">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="25" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="24" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="2">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="25"/>
@@ -2279,15 +2454,15 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="25"/>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="25"/>
@@ -2295,12 +2470,12 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -2311,12 +2486,12 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="25"/>
       <c r="C17" s="1" t="s">
         <v>55</v>
@@ -2327,489 +2502,489 @@
         <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="8" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="7">
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>8</v>
+      <c r="A19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>76</v>
+        <v>126</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="25"/>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="25"/>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="24" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="2">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="24" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="2">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="25"/>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="26"/>
+        <v>141</v>
+      </c>
+      <c r="E28" s="28"/>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E29" s="24" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="2">
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="25"/>
       <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E31" s="25"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="24" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E33" s="24" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="25"/>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="2">
-        <v>3</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="2">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="7">
         <v>2</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="9"/>
+      <c r="G41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A19:A38"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A19:A37"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
